--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>事件</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>接口测试</t>
+  </si>
+  <si>
+    <t>学习java编程</t>
   </si>
 </sst>
 </file>
@@ -68,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,6 +102,113 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,113 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,55 +238,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,121 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,59 +464,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +496,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,151 +552,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,13 +1058,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -1066,7 +1072,7 @@
     <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="20" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,70 +1087,133 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="10935"/>
+    <workbookView windowWidth="21840" windowHeight="10935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testcase01" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,15 +92,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,62 +116,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,6 +130,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -183,16 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,22 +207,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,21 +447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -469,21 +454,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +501,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -544,6 +529,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,154 +552,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,7 +1058,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1087,126 +1084,126 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1</v>
       </c>
     </row>
